--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_03-05_beg.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_03-05_beg.xlsx
@@ -1020,7 +1020,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]   That's the "W" person who we saw at Chernobog!
+    <t xml:space="preserve">[name="Amiya"]   That's the 'W' person who we saw at Chernobog!
 </t>
   </si>
   <si>
